--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.15/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.15/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="951">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,736 +58,736 @@
     <t>co</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>hospitals</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>responsible</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>stuff</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>safe</t>
@@ -3232,10 +3232,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3293,7 +3293,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03350070493852483</v>
+        <v>0.03406108114136479</v>
       </c>
       <c r="C3">
         <v>145</v>
@@ -3343,7 +3343,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02136957822366405</v>
+        <v>0.02172703348089648</v>
       </c>
       <c r="C4">
         <v>59</v>
@@ -3364,7 +3364,7 @@
         <v>457</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>0.009037724126289707</v>
@@ -3393,7 +3393,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01180337478473872</v>
+        <v>0.01200081332684421</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -3414,7 +3414,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="K5">
         <v>0.008454016809189236</v>
@@ -3423,19 +3423,19 @@
         <v>182</v>
       </c>
       <c r="M5">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="N5">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3443,7 +3443,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01147081842777358</v>
+        <v>0.01166269420130783</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -3464,7 +3464,7 @@
         <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="K6">
         <v>0.007801772140388403</v>
@@ -3473,19 +3473,19 @@
         <v>155</v>
       </c>
       <c r="M6">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="N6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3493,7 +3493,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01040959810390307</v>
+        <v>0.01058372253111316</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3514,7 +3514,7 @@
         <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>0.007674905601849275</v>
@@ -3543,7 +3543,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01040959810390307</v>
+        <v>0.01058372253111316</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -3564,7 +3564,7 @@
         <v>2806</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K8">
         <v>0.007623567864458222</v>
@@ -3593,28 +3593,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009637415155147698</v>
+        <v>0.00938146732648819</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>0.007117414654049302</v>
@@ -3643,13 +3643,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009227122518240162</v>
+        <v>0.008485856483165435</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10">
         <v>0.006864644258651567</v>
@@ -3693,13 +3693,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008346246351175054</v>
+        <v>0.008000542217896143</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>0.006542453761755048</v>
@@ -3743,7 +3743,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007868916523159146</v>
+        <v>0.008000542217896143</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3764,7 +3764,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K12">
         <v>0.00642128672448974</v>
@@ -3793,7 +3793,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007868916523159146</v>
+        <v>0.008000542217896143</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -3811,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K13">
         <v>0.006171820407701359</v>
@@ -3843,7 +3843,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007868916523159146</v>
+        <v>0.008000542217896143</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -3864,7 +3864,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K14">
         <v>0.006107861993498353</v>
@@ -3893,28 +3893,28 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007868916523159146</v>
+        <v>0.008000542217896143</v>
       </c>
       <c r="C15">
         <v>8</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1927</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>0.005845033967260797</v>
@@ -3943,28 +3943,28 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007868916523159146</v>
+        <v>0.008000542217896143</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F16">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1927</v>
+        <v>944</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K16">
         <v>0.00581134473007615</v>
@@ -3993,25 +3993,25 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007868916523159146</v>
+        <v>0.008000542217896143</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="E17">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F17">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>944</v>
+        <v>3043</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>258</v>
@@ -4043,28 +4043,28 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007868916523159146</v>
+        <v>0.007483821971946968</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>3043</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18">
         <v>0.005167516468489303</v>
@@ -4093,7 +4093,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007360697408696485</v>
+        <v>0.007483821971946968</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>0.004973907309034307</v>
@@ -4143,13 +4143,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007360697408696485</v>
+        <v>0.006928672804747954</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4161,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K20">
         <v>0.004934273949854857</v>
@@ -4193,7 +4193,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00681468160931494</v>
+        <v>0.006928672804747954</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4211,10 +4211,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K21">
         <v>0.004647386132620756</v>
@@ -4243,13 +4243,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00681468160931494</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4261,10 +4261,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>0.004562105747610242</v>
@@ -4293,28 +4293,28 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00681468160931494</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23">
         <v>0.004562105747610242</v>
@@ -4343,7 +4343,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>259</v>
@@ -4393,7 +4393,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4411,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K25">
         <v>0.004386573927997089</v>
@@ -4443,7 +4443,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4461,10 +4461,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K26">
         <v>0.004386573927997089</v>
@@ -4493,7 +4493,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>260</v>
@@ -4543,7 +4543,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4561,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K28">
         <v>0.004109241266449552</v>
@@ -4593,7 +4593,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K29">
         <v>0.004061178311677938</v>
@@ -4643,7 +4643,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4661,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K30">
         <v>0.003963304210623501</v>
@@ -4693,7 +4693,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4711,10 +4711,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K31">
         <v>0.003913449342881204</v>
@@ -4743,7 +4743,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4761,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K32">
         <v>0.003811783932229111</v>
@@ -4793,28 +4793,28 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>592</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K33">
         <v>0.003759920509711791</v>
@@ -4843,25 +4843,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>780</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>261</v>
@@ -4893,7 +4893,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>592</v>
+        <v>1103</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>262</v>
@@ -4943,28 +4943,28 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
       <c r="D36">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="E36">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F36">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>780</v>
+        <v>33</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K36">
         <v>0.003544887052186117</v>
@@ -4993,28 +4993,28 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006220924732729001</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1103</v>
+        <v>47</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K37">
         <v>0.0034890585701745</v>
@@ -5043,28 +5043,28 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006220924732729001</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K38">
         <v>0.003432322129325783</v>
@@ -5093,7 +5093,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5111,10 +5111,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K39">
         <v>0.003432322129325783</v>
@@ -5143,7 +5143,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5161,10 +5161,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K40">
         <v>0.003374631934420527</v>
@@ -5193,7 +5193,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>263</v>
@@ -5243,7 +5243,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K42">
         <v>0.003315938206022872</v>
@@ -5293,7 +5293,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>264</v>
@@ -5343,25 +5343,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C44">
         <v>4</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>327</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>265</v>
@@ -5393,25 +5393,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>266</v>
@@ -5443,25 +5443,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E46">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F46">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>327</v>
+        <v>800</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>267</v>
@@ -5493,25 +5493,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C47">
         <v>4</v>
       </c>
       <c r="D47">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="E47">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F47">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>268</v>
@@ -5543,28 +5543,28 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005564164234116703</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K48">
         <v>0.002939265069072588</v>
@@ -5593,28 +5593,28 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005564164234116703</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K49">
         <v>0.002871686723795204</v>
@@ -5643,7 +5643,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>269</v>
@@ -5693,7 +5693,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>270</v>
@@ -5743,7 +5743,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>271</v>
@@ -5793,7 +5793,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>272</v>
@@ -5843,25 +5843,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>273</v>
@@ -5893,25 +5893,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>812</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>274</v>
@@ -5943,28 +5943,28 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E56">
-        <v>0.95</v>
+        <v>0.73</v>
       </c>
       <c r="F56">
-        <v>0.05000000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K56">
         <v>0.002658665289139587</v>
@@ -5993,13 +5993,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E57">
         <v>0.97</v>
@@ -6011,10 +6011,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>812</v>
+        <v>20</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K57">
         <v>0.002583758234244651</v>
@@ -6043,25 +6043,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>275</v>
@@ -6093,28 +6093,28 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K59">
         <v>0.002506613673141194</v>
@@ -6143,13 +6143,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004818707577573849</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>276</v>
@@ -6193,13 +6193,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004818707577573849</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -6214,7 +6214,7 @@
         <v>29</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K61">
         <v>0.002427018252862912</v>
@@ -6243,7 +6243,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>277</v>
@@ -6293,7 +6293,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>278</v>
@@ -6343,7 +6343,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>279</v>
@@ -6393,7 +6393,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6443,7 +6443,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6461,10 +6461,10 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K66">
         <v>0.002344722391474327</v>
@@ -6493,7 +6493,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6511,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K67">
         <v>0.002259431031572427</v>
@@ -6543,7 +6543,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6561,10 +6561,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K68">
         <v>0.002259431031572427</v>
@@ -6593,7 +6593,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6611,10 +6611,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K69">
         <v>0.002259431031572427</v>
@@ -6643,7 +6643,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>281</v>
@@ -6693,7 +6693,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>282</v>
@@ -6743,7 +6743,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6761,10 +6761,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K72">
         <v>0.002259431031572427</v>
@@ -6793,7 +6793,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -6811,10 +6811,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K73">
         <v>0.002259431031572427</v>
@@ -6843,7 +6843,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>283</v>
@@ -6893,25 +6893,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>284</v>
@@ -6943,28 +6943,28 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K76">
         <v>0.002170791118413697</v>
@@ -6993,25 +6993,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>0.9399999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F77">
-        <v>0.06000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>285</v>
@@ -7043,28 +7043,28 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="E78">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F78">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K78">
         <v>0.002170791118413697</v>
@@ -7093,25 +7093,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E79">
-        <v>0.6</v>
+        <v>0.96</v>
       </c>
       <c r="F79">
-        <v>0.4</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>286</v>
@@ -7143,25 +7143,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F80">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>287</v>
@@ -7193,25 +7193,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E81">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F81">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>304</v>
+        <v>18</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>288</v>
@@ -7243,25 +7243,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E82">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F82">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>289</v>
@@ -7293,25 +7293,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F83">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>290</v>
@@ -7343,25 +7343,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="E84">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F84">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>291</v>
@@ -7393,25 +7393,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E85">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F85">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>292</v>
@@ -7443,28 +7443,28 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="E86">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F86">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K86">
         <v>0.002078374262045973</v>
@@ -7493,25 +7493,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>0.9399999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F87">
-        <v>0.06000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>293</v>
@@ -7543,25 +7543,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>0.91</v>
+        <v>0.33</v>
       </c>
       <c r="F88">
-        <v>0.08999999999999997</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>294</v>
@@ -7593,25 +7593,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E89">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F89">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>295</v>
@@ -7643,25 +7643,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E90">
-        <v>0.33</v>
+        <v>0.97</v>
       </c>
       <c r="F90">
-        <v>0.6699999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>296</v>
@@ -7693,25 +7693,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F91">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>297</v>
@@ -7743,25 +7743,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F92">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>298</v>
@@ -7793,25 +7793,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E93">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F93">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>299</v>
@@ -7843,25 +7843,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E94">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F94">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>300</v>
@@ -7893,28 +7893,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>20</v>
       </c>
-      <c r="E95">
-        <v>0.9</v>
-      </c>
-      <c r="F95">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>8</v>
-      </c>
       <c r="J95" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K95">
         <v>0.001981652105311751</v>
@@ -7943,28 +7943,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96">
         <v>6</v>
       </c>
-      <c r="E96">
-        <v>0.67</v>
-      </c>
-      <c r="F96">
-        <v>0.33</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>95</v>
-      </c>
       <c r="J96" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K96">
         <v>0.001981652105311751</v>
@@ -7993,13 +7993,13 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003934458261579573</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>301</v>
@@ -8043,13 +8043,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003934458261579573</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K98">
         <v>0.001879960254855895</v>
@@ -8093,7 +8093,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8111,10 +8111,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K99">
         <v>0.001879960254855895</v>
@@ -8143,7 +8143,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>302</v>
@@ -8193,7 +8193,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8211,10 +8211,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K101">
         <v>0.001879960254855895</v>
@@ -8243,7 +8243,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8261,10 +8261,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K102">
         <v>0.001879960254855895</v>
@@ -8293,7 +8293,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>303</v>
@@ -8343,7 +8343,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8393,7 +8393,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>305</v>
@@ -8443,7 +8443,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K106">
         <v>0.001879960254855895</v>
@@ -8493,7 +8493,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>306</v>
@@ -8543,7 +8543,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8561,10 +8561,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K108">
         <v>0.001772443526093059</v>
@@ -8593,7 +8593,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8611,10 +8611,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K109">
         <v>0.001772443526093059</v>
@@ -8643,7 +8643,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8661,10 +8661,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K110">
         <v>0.001772443526093059</v>
@@ -8693,7 +8693,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>307</v>
@@ -8743,7 +8743,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8761,10 +8761,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K112">
         <v>0.001772443526093059</v>
@@ -8793,7 +8793,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>308</v>
@@ -8843,7 +8843,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>309</v>
@@ -8893,7 +8893,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>310</v>
@@ -8943,7 +8943,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8961,10 +8961,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K116">
         <v>0.001772443526093059</v>
@@ -8993,7 +8993,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>311</v>
@@ -9043,7 +9043,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>312</v>
@@ -9093,7 +9093,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>313</v>
@@ -9143,25 +9143,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>314</v>
@@ -9193,28 +9193,28 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K121">
         <v>0.001657969103011436</v>
@@ -9243,25 +9243,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E122">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F122">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>315</v>
@@ -9293,7 +9293,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9311,10 +9311,10 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K123">
         <v>0.001657969103011436</v>
@@ -9343,28 +9343,28 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
+        <v>8</v>
+      </c>
+      <c r="E124">
+        <v>0.88</v>
+      </c>
+      <c r="F124">
+        <v>0.12</v>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124">
         <v>11</v>
       </c>
-      <c r="E124">
-        <v>0.91</v>
-      </c>
-      <c r="F124">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <v>31</v>
-      </c>
       <c r="J124" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K124">
         <v>0.001657969103011436</v>
@@ -9393,25 +9393,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F125">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>316</v>
@@ -9443,19 +9443,19 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E126">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F126">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
@@ -9493,25 +9493,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F127">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>318</v>
@@ -9543,25 +9543,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>319</v>
@@ -9593,25 +9593,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>320</v>
@@ -9643,25 +9643,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>321</v>
@@ -9693,25 +9693,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>322</v>
@@ -9743,28 +9743,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E132">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F132">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K132">
         <v>0.001657969103011436</v>
@@ -9793,25 +9793,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E133">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F133">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>23</v>
+        <v>353</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>323</v>
@@ -9843,25 +9843,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E134">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F134">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>324</v>
@@ -9893,28 +9893,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F135">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>353</v>
+        <v>57</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K135">
         <v>0.001657969103011436</v>
@@ -9943,25 +9943,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>325</v>
@@ -9993,25 +9993,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E137">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F137">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>326</v>
@@ -10043,25 +10043,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>327</v>
@@ -10093,25 +10093,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F139">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>328</v>
@@ -10143,25 +10143,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>329</v>
@@ -10193,28 +10193,28 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K141">
         <v>0.001657969103011436</v>
@@ -10243,25 +10243,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>330</v>
@@ -10293,7 +10293,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10311,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>331</v>
@@ -10343,28 +10343,28 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F144">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K144">
         <v>0.001534981120369855</v>
@@ -10393,28 +10393,28 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K145">
         <v>0.001534981120369855</v>
@@ -10443,25 +10443,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E146">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F146">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>332</v>
@@ -10493,25 +10493,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E147">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F147">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>333</v>
@@ -10543,25 +10543,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>334</v>
@@ -10593,28 +10593,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E149">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F149">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>127</v>
+        <v>366</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K149">
         <v>0.001534981120369855</v>
@@ -10643,28 +10643,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K150">
         <v>0.001534981120369855</v>
@@ -10693,25 +10693,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E151">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F151">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>366</v>
+        <v>49</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>335</v>
@@ -10743,25 +10743,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E152">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F152">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>336</v>
@@ -10793,25 +10793,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E153">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F153">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>337</v>
@@ -10843,25 +10843,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E154">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F154">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>338</v>
@@ -10893,28 +10893,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K155">
         <v>0.001534981120369855</v>
@@ -10943,25 +10943,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F156">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>339</v>
@@ -10993,28 +10993,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K157">
         <v>0.001534981120369855</v>
@@ -11043,25 +11043,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>340</v>
@@ -11093,28 +11093,28 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E159">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F159">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K159">
         <v>0.001534981120369855</v>
@@ -11143,7 +11143,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>341</v>
@@ -11193,25 +11193,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161" t="b">
+        <v>0</v>
+      </c>
+      <c r="H161">
         <v>16</v>
-      </c>
-      <c r="E161">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F161">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161">
-        <v>121</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>342</v>
@@ -11243,25 +11243,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>343</v>
@@ -11293,25 +11293,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>344</v>
@@ -11343,25 +11343,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>345</v>
@@ -11393,25 +11393,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F165">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>346</v>
@@ -11443,25 +11443,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>347</v>
@@ -11493,25 +11493,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E167">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F167">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>348</v>
@@ -11543,25 +11543,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F168">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>349</v>
@@ -11593,25 +11593,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E169">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F169">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>350</v>
@@ -11643,7 +11643,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11661,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>351</v>
@@ -11693,25 +11693,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F171">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>352</v>
@@ -11743,7 +11743,7 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -11761,10 +11761,10 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K172">
         <v>0.001401239641618537</v>
@@ -11793,25 +11793,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>353</v>
@@ -11843,25 +11843,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E174">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F174">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>354</v>
@@ -11893,7 +11893,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11911,10 +11911,10 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K175">
         <v>0.001401239641618537</v>
@@ -11943,25 +11943,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E176">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F176">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>355</v>
@@ -11993,25 +11993,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>356</v>
@@ -12043,25 +12043,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E178">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F178">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>357</v>
@@ -12093,25 +12093,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>358</v>
@@ -12143,25 +12143,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E180">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F180">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>359</v>
@@ -12193,25 +12193,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E181">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F181">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>360</v>
@@ -12243,28 +12243,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K182">
         <v>0.001401239641618537</v>
@@ -12293,25 +12293,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="E183">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F183">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>361</v>
@@ -12343,25 +12343,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>362</v>
@@ -12393,28 +12393,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K185">
         <v>0.001401239641618537</v>
@@ -12443,25 +12443,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E186">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F186">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>363</v>
@@ -12493,28 +12493,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K187">
         <v>0.001401239641618537</v>
@@ -12543,25 +12543,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E188">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F188">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>364</v>
@@ -12593,25 +12593,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>365</v>
@@ -12643,25 +12643,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E190">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F190">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>366</v>
@@ -12693,28 +12693,28 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F191">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K191">
         <v>0.001401239641618537</v>
@@ -12743,25 +12743,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>367</v>
@@ -12793,25 +12793,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>368</v>
@@ -12843,28 +12843,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K194">
         <v>0.001401239641618537</v>
@@ -12893,25 +12893,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>369</v>
@@ -12943,25 +12943,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F196">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>370</v>
@@ -12993,25 +12993,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E197">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F197">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>371</v>
@@ -13043,25 +13043,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>372</v>
@@ -13093,28 +13093,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K199">
         <v>0.001253306836570597</v>
@@ -13143,25 +13143,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E200">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F200">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>373</v>
@@ -13193,28 +13193,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K201">
         <v>0.001253306836570597</v>
@@ -13243,28 +13243,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E202">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F202">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K202">
         <v>0.001253306836570597</v>
@@ -13293,25 +13293,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E203">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F203">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>374</v>
@@ -13343,13 +13343,13 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E204">
         <v>0.93</v>
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>375</v>
@@ -13393,25 +13393,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205">
+        <v>0.75</v>
+      </c>
+      <c r="F205">
+        <v>0.25</v>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205">
         <v>14</v>
-      </c>
-      <c r="E205">
-        <v>0.93</v>
-      </c>
-      <c r="F205">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205">
-        <v>171</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>376</v>
@@ -13443,25 +13443,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>377</v>
@@ -13493,25 +13493,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E207">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F207">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>378</v>
@@ -13543,25 +13543,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F208">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>379</v>
@@ -13593,25 +13593,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>380</v>
@@ -13643,25 +13643,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>381</v>
@@ -13693,25 +13693,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>382</v>
@@ -13743,25 +13743,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F212">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>383</v>
@@ -13793,25 +13793,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E213">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F213">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>384</v>
@@ -13843,25 +13843,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>385</v>
@@ -13893,25 +13893,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E215">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F215">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>386</v>
@@ -13943,25 +13943,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>88</v>
+        <v>531</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>387</v>
@@ -13993,25 +13993,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E217">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F217">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>388</v>
@@ -14043,25 +14043,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E218">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F218">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>531</v>
+        <v>3</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>389</v>
@@ -14093,28 +14093,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="E219">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F219">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K219">
         <v>0.001253306836570597</v>
@@ -14143,25 +14143,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>390</v>
@@ -14193,28 +14193,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="E221">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="F221">
-        <v>0.01000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K221">
         <v>0.001253306836570597</v>
@@ -14243,28 +14243,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>5</v>
+        <v>290</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K222">
         <v>0.001253306836570597</v>
@@ -14293,25 +14293,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E223">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F223">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>391</v>
@@ -14343,25 +14343,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E224">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F224">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>392</v>
@@ -14393,7 +14393,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14411,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>393</v>
@@ -14443,25 +14443,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E226">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F226">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>394</v>
@@ -14493,25 +14493,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E227">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F227">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>395</v>
@@ -14543,25 +14543,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
+        <v>6</v>
+      </c>
+      <c r="E228">
+        <v>0.83</v>
+      </c>
+      <c r="F228">
+        <v>0.17</v>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228">
         <v>13</v>
-      </c>
-      <c r="E228">
-        <v>0.92</v>
-      </c>
-      <c r="F228">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228">
-        <v>84</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>396</v>
@@ -14593,28 +14593,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E229">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F229">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K229">
         <v>0.001253306836570597</v>
@@ -14643,25 +14643,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E230">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F230">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>397</v>
@@ -14693,25 +14693,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E231">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F231">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>398</v>
@@ -14743,25 +14743,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>399</v>
@@ -14793,25 +14793,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>400</v>
@@ -14843,7 +14843,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14861,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>401</v>
@@ -14893,7 +14893,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14911,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>402</v>
@@ -14943,25 +14943,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>403</v>
@@ -14993,25 +14993,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>404</v>
@@ -15043,28 +15043,28 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K238">
         <v>0.001253306836570597</v>
@@ -15093,25 +15093,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E239">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F239">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>34</v>
+        <v>527</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>405</v>
@@ -15143,7 +15143,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>406</v>
@@ -15193,25 +15193,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>527</v>
+        <v>251</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>407</v>
@@ -15243,7 +15243,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15261,7 +15261,7 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>408</v>
@@ -15293,7 +15293,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>409</v>
@@ -15343,7 +15343,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>410</v>
@@ -15393,7 +15393,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>411</v>
@@ -15443,7 +15443,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15461,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>412</v>
@@ -15493,7 +15493,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15511,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>413</v>
@@ -15543,7 +15543,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15561,7 +15561,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>414</v>
@@ -15593,7 +15593,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15611,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>415</v>
@@ -15639,32 +15639,8 @@
       </c>
     </row>
     <row r="250" spans="1:17">
-      <c r="A250" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B250">
-        <v>0.002782082117058351</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>1</v>
-      </c>
-      <c r="E250">
-        <v>0</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250" t="b">
-        <v>0</v>
-      </c>
-      <c r="H250">
-        <v>9</v>
-      </c>
       <c r="J250" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K250">
         <v>0.001085395559206849</v>
@@ -15689,30 +15665,6 @@
       </c>
     </row>
     <row r="251" spans="1:17">
-      <c r="A251" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B251">
-        <v>0.002782082117058351</v>
-      </c>
-      <c r="C251">
-        <v>1</v>
-      </c>
-      <c r="D251">
-        <v>1</v>
-      </c>
-      <c r="E251">
-        <v>0</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251" t="b">
-        <v>0</v>
-      </c>
-      <c r="H251">
-        <v>44</v>
-      </c>
       <c r="J251" s="1" t="s">
         <v>416</v>
       </c>
@@ -15870,7 +15822,7 @@
     </row>
     <row r="257" spans="10:17">
       <c r="J257" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K257">
         <v>0.001085395559206849</v>
@@ -15948,7 +15900,7 @@
     </row>
     <row r="260" spans="10:17">
       <c r="J260" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K260">
         <v>0.001085395559206849</v>
@@ -16000,7 +15952,7 @@
     </row>
     <row r="262" spans="10:17">
       <c r="J262" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K262">
         <v>0.001085395559206849</v>
@@ -16338,7 +16290,7 @@
     </row>
     <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K275">
         <v>0.001085395559206849</v>
@@ -16494,7 +16446,7 @@
     </row>
     <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K281">
         <v>0.001085395559206849</v>
@@ -16572,7 +16524,7 @@
     </row>
     <row r="284" spans="10:17">
       <c r="J284" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K284">
         <v>0.001085395559206849</v>
@@ -16598,7 +16550,7 @@
     </row>
     <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K285">
         <v>0.001085395559206849</v>
@@ -16832,7 +16784,7 @@
     </row>
     <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K294">
         <v>0.001085395559206849</v>
@@ -16962,7 +16914,7 @@
     </row>
     <row r="299" spans="10:17">
       <c r="J299" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K299">
         <v>0.001085395559206849</v>
@@ -17040,7 +16992,7 @@
     </row>
     <row r="302" spans="10:17">
       <c r="J302" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K302">
         <v>0.001085395559206849</v>
@@ -17144,7 +17096,7 @@
     </row>
     <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K306">
         <v>0.001085395559206849</v>
@@ -17482,7 +17434,7 @@
     </row>
     <row r="319" spans="10:17">
       <c r="J319" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K319">
         <v>0.001085395559206849</v>
@@ -17586,7 +17538,7 @@
     </row>
     <row r="323" spans="10:17">
       <c r="J323" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K323">
         <v>0.001085395559206849</v>
@@ -17924,7 +17876,7 @@
     </row>
     <row r="336" spans="10:17">
       <c r="J336" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K336">
         <v>0.0008862217630465293</v>
@@ -18496,7 +18448,7 @@
     </row>
     <row r="358" spans="10:17">
       <c r="J358" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K358">
         <v>0.0008862217630465293</v>
@@ -18938,7 +18890,7 @@
     </row>
     <row r="375" spans="10:17">
       <c r="J375" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K375">
         <v>0.0008862217630465293</v>
@@ -19952,7 +19904,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K414">
         <v>0.0008862217630465293</v>
@@ -20238,7 +20190,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K425">
         <v>0.0008862217630465293</v>
@@ -20316,7 +20268,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K428">
         <v>0.0008862217630465293</v>
@@ -20784,7 +20736,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K446">
         <v>0.0008862217630465293</v>
@@ -20862,7 +20814,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K449">
         <v>0.0008862217630465293</v>
@@ -20888,7 +20840,7 @@
     </row>
     <row r="450" spans="10:17">
       <c r="J450" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K450">
         <v>0.0008862217630465293</v>
@@ -21096,7 +21048,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K458">
         <v>0.0008862217630465293</v>
@@ -21382,7 +21334,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K469">
         <v>0.0008862217630465293</v>
@@ -21408,7 +21360,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K470">
         <v>0.0008862217630465293</v>
@@ -21720,7 +21672,7 @@
     </row>
     <row r="482" spans="10:17">
       <c r="J482" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K482">
         <v>0.0006266534182852985</v>
@@ -22526,7 +22478,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K513">
         <v>0.0006266534182852985</v>
@@ -22838,7 +22790,7 @@
     </row>
     <row r="525" spans="10:17">
       <c r="J525" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K525">
         <v>0.0006266534182852985</v>
@@ -23176,7 +23128,7 @@
     </row>
     <row r="538" spans="10:17">
       <c r="J538" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K538">
         <v>0.0006266534182852985</v>
@@ -23462,7 +23414,7 @@
     </row>
     <row r="549" spans="10:17">
       <c r="J549" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K549">
         <v>0.0006266534182852985</v>
@@ -23618,7 +23570,7 @@
     </row>
     <row r="555" spans="10:17">
       <c r="J555" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K555">
         <v>0.0006266534182852985</v>
@@ -23956,7 +23908,7 @@
     </row>
     <row r="568" spans="10:17">
       <c r="J568" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K568">
         <v>0.0006266534182852985</v>
@@ -24684,7 +24636,7 @@
     </row>
     <row r="596" spans="10:17">
       <c r="J596" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K596">
         <v>0.0006266534182852985</v>
@@ -25542,7 +25494,7 @@
     </row>
     <row r="629" spans="10:17">
       <c r="J629" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K629">
         <v>0.0006266534182852985</v>
@@ -26322,7 +26274,7 @@
     </row>
     <row r="659" spans="10:17">
       <c r="J659" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K659">
         <v>0.0006266534182852985</v>
@@ -26478,7 +26430,7 @@
     </row>
     <row r="665" spans="10:17">
       <c r="J665" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K665">
         <v>0.0006266534182852985</v>
@@ -26972,7 +26924,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K684">
         <v>0.0006266534182852985</v>
@@ -28688,7 +28640,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K750">
         <v>0.0006266534182852985</v>
@@ -28896,7 +28848,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K758">
         <v>0.0006266534182852985</v>
@@ -28948,7 +28900,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K760">
         <v>0.0006266534182852985</v>
@@ -29754,7 +29706,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K791">
         <v>0.0006266534182852985</v>
@@ -30508,7 +30460,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K820">
         <v>0.0006266534182852985</v>
